--- a/ユニットテスト(Cellクラス)仕様書 .xlsx
+++ b/ユニットテスト(Cellクラス)仕様書 .xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ミニプロ\LV50\Level50\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B044D6C-B903-4012-9CEF-E2B25A74A591}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD6C44A-AC87-4298-B516-B17D30EE44D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="システムテスト" sheetId="4" r:id="rId1"/>
+    <sheet name="ユニットテスト" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -546,6 +546,60 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -571,60 +625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -985,104 +985,104 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1175,68 +1175,68 @@
       <c r="AS5" s="5"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="14" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="14" t="s">
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="14" t="s">
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="14" t="s">
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="14" t="s">
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="14" t="s">
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="15"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="33"/>
     </row>
     <row r="7" spans="2:45" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
@@ -1270,11 +1270,11 @@
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
       <c r="AF7" s="17"/>
@@ -1283,7 +1283,7 @@
       <c r="AI7" s="17"/>
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
-      <c r="AL7" s="16"/>
+      <c r="AL7" s="23"/>
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
       <c r="AO7" s="17"/>
@@ -1324,11 +1324,11 @@
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
       <c r="AD8" s="17"/>
       <c r="AE8" s="17"/>
       <c r="AF8" s="17"/>
@@ -1337,7 +1337,7 @@
       <c r="AI8" s="17"/>
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
-      <c r="AL8" s="16"/>
+      <c r="AL8" s="23"/>
       <c r="AM8" s="17"/>
       <c r="AN8" s="17"/>
       <c r="AO8" s="17"/>
@@ -1351,26 +1351,26 @@
         <v>15</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="31"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
       <c r="T9" s="21" t="b">
         <v>0</v>
       </c>
@@ -1731,53 +1731,135 @@
       <c r="AS16" s="18"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="25"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AK15"/>
     <mergeCell ref="E9:S9"/>
     <mergeCell ref="AL17:AO17"/>
     <mergeCell ref="AP17:AS17"/>
@@ -1794,88 +1876,6 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="Y16:AC16"/>
     <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP6:AS6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -1885,21 +1885,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2083,10 +2068,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B55F2A26-0D08-4535-A60D-9F41C9906BF6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2108,19 +2118,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B55F2A26-0D08-4535-A60D-9F41C9906BF6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ユニットテスト(Cellクラス)仕様書 .xlsx
+++ b/ユニットテスト(Cellクラス)仕様書 .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ミニプロ\LV50\Level50\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Level50\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD6C44A-AC87-4298-B516-B17D30EE44D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8FC9DB-31C5-4D11-A4CE-58C0771E2257}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>テストレベル</t>
     <phoneticPr fontId="2"/>
@@ -110,68 +110,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Cellクラス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>盤内の座標入力（1 1）</t>
-    <rPh sb="0" eb="1">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>盤外の座標入力(1 4)</t>
-    <rPh sb="0" eb="1">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>数字以外の入力？</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.judgeCoordinate(1,4)を実行する</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -183,42 +122,95 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.judgeCoordinate(1,☆)を実行</t>
-    <rPh sb="23" eb="25">
-      <t>ジッコウ</t>
-    </rPh>
+    <t>タイトル：ユニットテスト</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>盤外の入力（4 1）</t>
-    <rPh sb="0" eb="1">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
+    <t>指定した座標が入力可能かどうか確認する。
+指定した座標が空欄だった場合</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>1.judgeCoordinate(4,1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を実行する</t>
-    </r>
+    <t>指定した座標が入力可能かどうか確認する。
+指定した座標がすでに埋まっていた場合</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル：ユニットテスト</t>
+    <t>1_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.judgeCoordinate(1,1)を実行する
+2.setMark(”〇”)を実行する
+3..もう一度judgeCoordinate(1,1)を実行する</t>
+    <rPh sb="43" eb="45">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イチド</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -226,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -274,12 +266,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -546,8 +532,56 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -576,56 +610,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,7 +956,7 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -985,106 +971,106 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="25" t="s">
-        <v>23</v>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1175,79 +1161,79 @@
       <c r="AS5" s="5"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="32" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="32" t="s">
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="32" t="s">
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="32" t="s">
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="32" t="s">
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="32" t="s">
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="33"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="15"/>
     </row>
     <row r="7" spans="2:45" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" s="20"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="33" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -1270,11 +1256,11 @@
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
       <c r="AF7" s="17"/>
@@ -1283,7 +1269,7 @@
       <c r="AI7" s="17"/>
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
-      <c r="AL7" s="23"/>
+      <c r="AL7" s="16"/>
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
       <c r="AO7" s="17"/>
@@ -1294,10 +1280,10 @@
     </row>
     <row r="8" spans="2:45" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="20"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="33" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -1324,11 +1310,11 @@
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
       <c r="AD8" s="17"/>
       <c r="AE8" s="17"/>
       <c r="AF8" s="17"/>
@@ -1337,7 +1323,7 @@
       <c r="AI8" s="17"/>
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
-      <c r="AL8" s="23"/>
+      <c r="AL8" s="16"/>
       <c r="AM8" s="17"/>
       <c r="AN8" s="17"/>
       <c r="AO8" s="17"/>
@@ -1348,32 +1334,26 @@
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="21" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="21"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
@@ -1401,16 +1381,10 @@
       <c r="AS9" s="18"/>
     </row>
     <row r="10" spans="2:45" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="19"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -1425,9 +1399,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
-      <c r="T10" s="21" t="b">
-        <v>0</v>
-      </c>
+      <c r="T10" s="21"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
@@ -1731,63 +1703,125 @@
       <c r="AS16" s="18"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="12"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="E9:S9"/>
     <mergeCell ref="AL7:AO7"/>
     <mergeCell ref="AP7:AS7"/>
     <mergeCell ref="B8:C8"/>
@@ -1804,78 +1838,16 @@
     <mergeCell ref="Y7:AC7"/>
     <mergeCell ref="AD7:AG7"/>
     <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP6:AS6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -1885,6 +1857,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2068,12 +2046,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2084,6 +2056,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B55F2A26-0D08-4535-A60D-9F41C9906BF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2101,22 +2089,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
   <ds:schemaRefs>

--- a/ユニットテスト(Cellクラス)仕様書 .xlsx
+++ b/ユニットテスト(Cellクラス)仕様書 .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Level50\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ミニプロ\Work\Level50\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8FC9DB-31C5-4D11-A4CE-58C0771E2257}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB236A05-EC11-4369-A342-8930F47AEDB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,14 +114,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">1.judgeCoordinate(1,1)を実行する
-</t>
-    <rPh sb="23" eb="25">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイトル：ユニットテスト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -202,14 +194,24 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.judgeCoordinate(1,1)を実行する
-2.setMark(”〇”)を実行する
-3..もう一度judgeCoordinate(1,1)を実行する</t>
-    <rPh sb="43" eb="45">
+    <t xml:space="preserve">1.Cell(1,1)を実行する
+2.judgeCoordinate()を実行する
+</t>
+    <rPh sb="12" eb="14">
       <t>ジッコウ</t>
     </rPh>
-    <rPh sb="53" eb="55">
-      <t>イチド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Cell(1,1)を実行する
+2.judgeCoordinate()を実行する
+3.Cell(1,1)を実行する。
+</t>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -532,6 +534,60 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -558,60 +614,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,7 +959,7 @@
   <dimension ref="B1:AS17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -971,104 +973,104 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="7" t="s">
-        <v>12</v>
+      <c r="B2" s="25" t="s">
+        <v>11</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1161,603 +1163,669 @@
       <c r="AS5" s="5"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="14" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="14" t="s">
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="14" t="s">
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="14" t="s">
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="14" t="s">
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="14" t="s">
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="15"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="33"/>
     </row>
     <row r="7" spans="2:45" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="15"/>
+    </row>
+    <row r="8" spans="2:45" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="33" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>11</v>
+      <c r="E8" s="18" t="s">
+        <v>18</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="21" t="b">
-        <v>1</v>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="18" t="b">
+        <v>0</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="18"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="15"/>
     </row>
-    <row r="8" spans="2:45" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="19" t="s">
+    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="18"/>
-    </row>
-    <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="15"/>
     </row>
     <row r="10" spans="2:45" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="15"/>
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="15"/>
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="15"/>
     </row>
     <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="15"/>
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="15"/>
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="15"/>
     </row>
     <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="15"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
-      <c r="AS17" s="28"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:S7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="E9:S9"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
     <mergeCell ref="AH16:AK16"/>
     <mergeCell ref="AL16:AO16"/>
     <mergeCell ref="AP16:AS16"/>
@@ -1774,80 +1842,14 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="Y16:AC16"/>
     <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:S8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:S7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AK17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -1857,9 +1859,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2047,26 +2052,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2090,9 +2084,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ユニットテスト(Cellクラス)仕様書 .xlsx
+++ b/ユニットテスト(Cellクラス)仕様書 .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ミニプロ\Work\Level50\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\ミニプロ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB236A05-EC11-4369-A342-8930F47AEDB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4B040D-DFBA-48BE-9AEC-661C13CC7322}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>テストレベル</t>
     <phoneticPr fontId="2"/>
@@ -194,24 +194,57 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">1.Cell(1,1)を実行する
-2.judgeCoordinate()を実行する
+    <t xml:space="preserve">1.オブジェクトを生成し、引数に(1,1)を設定する
+2.setMarkメソッドで引数にnullを設定する
+3.judgeCoordinate()を実行する
 </t>
-    <rPh sb="12" eb="14">
-      <t>ジッコウ</t>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">1.Cell(1,1)を実行する
-2.judgeCoordinate()を実行する
-3.Cell(1,1)を実行する。
+    <t xml:space="preserve">1.オブジェクトを生成し、引数に(1,1)を設定する
+2.setMarkメソッドで引数に〇を設定する
+4.judgeCoordinate()を実行する
 </t>
-    <rPh sb="12" eb="14">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ジッコウ</t>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -220,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -268,6 +301,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -512,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,6 +576,66 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,64 +654,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -958,8 +1000,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9:AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -973,104 +1015,104 @@
   <sheetData>
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
     </row>
     <row r="3" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
     </row>
     <row r="4" spans="2:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1163,605 +1205,683 @@
       <c r="AS5" s="5"/>
     </row>
     <row r="6" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="32" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="32" t="s">
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="32" t="s">
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="32" t="s">
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="32" t="s">
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="32" t="s">
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="33"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="16"/>
     </row>
     <row r="7" spans="2:45" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="18" t="b">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="24"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="24" t="b">
+        <v>1</v>
+      </c>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="24"/>
       <c r="AC7" s="24"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="15"/>
+      <c r="AD7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="17">
+        <v>43990</v>
+      </c>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="19"/>
     </row>
     <row r="8" spans="2:45" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="18" t="b">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="24"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="24" t="b">
+        <v>0</v>
+      </c>
       <c r="Z8" s="24"/>
       <c r="AA8" s="24"/>
       <c r="AB8" s="24"/>
       <c r="AC8" s="24"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="15"/>
+      <c r="AD8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="17">
+        <v>43990</v>
+      </c>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="19"/>
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="15"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="19"/>
     </row>
     <row r="10" spans="2:45" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="15"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="19"/>
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="15"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="19"/>
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="15"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="19"/>
     </row>
     <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="15"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="19"/>
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="15"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="19"/>
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="15"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="19"/>
     </row>
     <row r="16" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="15"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="19"/>
     </row>
     <row r="17" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8"/>
-      <c r="AP17" s="8"/>
-      <c r="AQ17" s="8"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="9"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:S6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AP6:AS6"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:S17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:S16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E10:S10"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="E9:S9"/>
     <mergeCell ref="AL7:AO7"/>
     <mergeCell ref="AP7:AS7"/>
     <mergeCell ref="B8:C8"/>
@@ -1778,78 +1898,16 @@
     <mergeCell ref="Y7:AC7"/>
     <mergeCell ref="AD7:AG7"/>
     <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E10:S10"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="E9:S9"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:S16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="B2:AS3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AP6:AS6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -1859,15 +1917,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2051,6 +2100,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2058,14 +2116,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B55F2A26-0D08-4535-A60D-9F41C9906BF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2079,6 +2129,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
